--- a/Generate/ПартииНаборов.xlsx
+++ b/Generate/ПартииНаборов.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,108 +391,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1030B0</t>
+          <t>293C0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>44604</t>
+          <t>7838</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Н/З VED/S250</t>
+          <t>Н/З EN/4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>989B0</t>
+          <t>469B0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1030B0</t>
+          <t>293C0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>44603</t>
+          <t>7825</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Н/З VED/M200</t>
+          <t>Н/З OX ENIGMA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>787B0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1030B0</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>44602</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Н/З VED/E50</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>749B0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>185C0</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>7838</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Н/З EN/4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>754A0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>185C0</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>7825</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Н/З OX ENIGMA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
         <is>
           <t>461B0</t>
         </is>
